--- a/SE Milestone 1.xlsx
+++ b/SE Milestone 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abram Fadl\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jana\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A26F21-B13E-430D-97DE-600C7FD17265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAC6E9E-8348-4BE3-9577-1ECD74D64B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="402">
   <si>
     <t>Team Name</t>
   </si>
@@ -1278,6 +1278,51 @@
   </si>
   <si>
     <t>Tawakalna 3ala Allah</t>
+  </si>
+  <si>
+    <t>Portability</t>
+  </si>
+  <si>
+    <t>This includes requirements related to the ability of the system to be easily transferred to different hardware or software environments.</t>
+  </si>
+  <si>
+    <t>Localization</t>
+  </si>
+  <si>
+    <t>A localized application has features that match the geographical location of its users such as Languages and Currencies</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>The capacity of a system refers to the amount of storage it offers</t>
+  </si>
+  <si>
+    <t>can be measured in terms of the maximum amount of effort required to transsfer from one system to another or the number of systems where sofware can run</t>
+  </si>
+  <si>
+    <t>can be measured by the time needed for the system to shift to ther languages/currencies</t>
+  </si>
+  <si>
+    <t>can be measured by the number of requests the system can do per second and the amount of data the user can upload to the sysytem</t>
+  </si>
+  <si>
+    <t>Recoverability</t>
+  </si>
+  <si>
+    <t>The ability to repair or replace system components with minimum work effort, with no loss or disruption of business functionality</t>
+  </si>
+  <si>
+    <t>the ability of the system to continue to function during common failure modes</t>
+  </si>
+  <si>
+    <t>can be measured by the number of hours of data loss or downtime</t>
+  </si>
+  <si>
+    <t>can be measured by  a static analysis of resilience capabilities and flaws, and a dynamic analysis of system behavior under realistic disruptive conditions</t>
+  </si>
+  <si>
+    <t>Resilience</t>
   </si>
 </sst>
 </file>
@@ -1567,22 +1612,22 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1813,7 +1858,7 @@
   </sheetPr>
   <dimension ref="A1:D998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1825,63 +1870,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="36" t="s">
         <v>386</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
     </row>
     <row r="5" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
     </row>
     <row r="6" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="33" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="34" t="s">
         <v>367</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="35" t="s">
         <v>369</v>
       </c>
       <c r="D7" s="30" t="s">
@@ -1889,13 +1934,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="34" t="s">
         <v>371</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>372</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="35" t="s">
         <v>373</v>
       </c>
       <c r="D8" s="30" t="s">
@@ -1903,13 +1948,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="34" t="s">
         <v>375</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>378</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="35" t="s">
         <v>376</v>
       </c>
       <c r="D9" s="30" t="s">
@@ -1917,13 +1962,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="34" t="s">
         <v>379</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>380</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="35" t="s">
         <v>381</v>
       </c>
       <c r="D10" s="30" t="s">
@@ -1931,13 +1976,13 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="34" t="s">
         <v>383</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>384</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="35" t="s">
         <v>382</v>
       </c>
       <c r="D11" s="30" t="s">
@@ -6417,8 +6462,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6850,11 +6895,19 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+    <row r="12" spans="1:26" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>393</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -6878,11 +6931,19 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+    <row r="13" spans="1:26" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>394</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -6906,11 +6967,19 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+    <row r="14" spans="1:26" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>395</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -6934,11 +7003,19 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+    <row r="15" spans="1:26" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -6962,11 +7039,19 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+    <row r="16" spans="1:26" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>400</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
